--- a/output/0/tRNA-Lys-TTT-3-2.xlsx
+++ b/output/0/tRNA-Lys-TTT-3-2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>chr1</t>
   </si>
@@ -150,51 +150,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>204476211</t>
-  </si>
-  <si>
-    <t>204476234</t>
-  </si>
-  <si>
-    <t>204476214</t>
-  </si>
-  <si>
-    <t>GGGAGCCCGGATAGCTCAGT</t>
-  </si>
-  <si>
-    <t>94% (66)</t>
-  </si>
-  <si>
-    <t>93% (73)</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>204476658</t>
-  </si>
-  <si>
-    <t>204476681</t>
-  </si>
-  <si>
-    <t>204476678</t>
-  </si>
-  <si>
-    <t>AAAGTGAGAGAAAGGAAGGA</t>
-  </si>
-  <si>
-    <t>59% (53)</t>
-  </si>
-  <si>
-    <t>23% (32)</t>
-  </si>
-  <si>
-    <t>69</t>
   </si>
 </sst>
 </file>
@@ -239,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -540,124 +495,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
